--- a/data_file/login_errors_ukr.xlsx
+++ b/data_file/login_errors_ukr.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>hanna_a</t>
   </si>
@@ -39,13 +39,19 @@
   </si>
   <si>
     <t>errorLoginUkr</t>
+  </si>
+  <si>
+    <t>﻿﻿﻿﻿﻿</t>
+  </si>
+  <si>
+    <t>﻿</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +65,13 @@
       <color rgb="FF6A8759"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -82,11 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -399,7 +413,12 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
